--- a/xlsx/FR/policies_support_FR_inc.xlsx
+++ b/xlsx/FR/policies_support_FR_inc.xlsx
@@ -12,30 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">(Top 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A green infrastructure program&lt;br&gt;(Bottom 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Top 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ban on combustion-engine cars&lt;br&gt;(Bottom 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (Top 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A carbon tax with cash transfers&lt;br&gt;(Bottom 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly oppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat oppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indifferent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly support</t>
   </si>
 </sst>
 </file>
@@ -380,61 +392,129 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0546547086558377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0661812501331574</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.208192488414742</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.176343373329135</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.152969417856475</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.168170898850047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.12566484288225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.124720801931439</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.288892947607827</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.279049804074378</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.222835416476882</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.247783338890736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.27162594757328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.242562075910783</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.248367221865251</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.242220620554306</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.37709943689126</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.287832345538246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.392460160195497</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.416987606038039</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.191951218550406</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.226376059881047</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.218219333905158</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.230184471217948</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.155594340693135</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.149548265986581</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0625961235617737</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0760101421611344</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0288763948702247</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0660289455030233</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/policies_support_FR_inc.xlsx
+++ b/xlsx/FR/policies_support_FR_inc.xlsx
@@ -26,13 +26,13 @@
     <t xml:space="preserve"> (Top 50%)</t>
   </si>
   <si>
+    <t xml:space="preserve">A carbon tax with cash transfers&lt;br&gt;(Bottom 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (Top 50%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">A ban on combustion-engine cars&lt;br&gt;(Bottom 50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (Top 50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A carbon tax with cash transfers&lt;br&gt;(Bottom 50%)</t>
   </si>
   <si>
     <t xml:space="preserve">Strongly oppose</t>
@@ -407,22 +407,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0546547086558377</v>
+        <v>0.0397385968040365</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0661812501331574</v>
+        <v>0.0461693249387499</v>
       </c>
       <c r="D2" t="n">
-        <v>0.208192488414742</v>
+        <v>0.149459118605229</v>
       </c>
       <c r="E2" t="n">
-        <v>0.176343373329135</v>
+        <v>0.156800016271621</v>
       </c>
       <c r="F2" t="n">
-        <v>0.152969417856475</v>
+        <v>0.20718412665528</v>
       </c>
       <c r="G2" t="n">
-        <v>0.168170898850047</v>
+        <v>0.155704271751568</v>
       </c>
     </row>
     <row r="3">
@@ -430,22 +430,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12566484288225</v>
+        <v>0.134456470816143</v>
       </c>
       <c r="C3" t="n">
-        <v>0.124720801931439</v>
+        <v>0.119877510571553</v>
       </c>
       <c r="D3" t="n">
-        <v>0.288892947607827</v>
+        <v>0.180669365549793</v>
       </c>
       <c r="E3" t="n">
-        <v>0.279049804074378</v>
+        <v>0.229913579957986</v>
       </c>
       <c r="F3" t="n">
-        <v>0.222835416476882</v>
+        <v>0.255795475429625</v>
       </c>
       <c r="G3" t="n">
-        <v>0.247783338890736</v>
+        <v>0.280387582419937</v>
       </c>
     </row>
     <row r="4">
@@ -453,22 +453,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.27162594757328</v>
+        <v>0.269457065663493</v>
       </c>
       <c r="C4" t="n">
-        <v>0.242562075910783</v>
+        <v>0.227968235484311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.248367221865251</v>
+        <v>0.411889701019116</v>
       </c>
       <c r="E4" t="n">
-        <v>0.242220620554306</v>
+        <v>0.308270593812129</v>
       </c>
       <c r="F4" t="n">
-        <v>0.37709943689126</v>
+        <v>0.270490315300326</v>
       </c>
       <c r="G4" t="n">
-        <v>0.287832345538246</v>
+        <v>0.283246227623945</v>
       </c>
     </row>
     <row r="5">
@@ -476,22 +476,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.392460160195497</v>
+        <v>0.353827248944274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.416987606038039</v>
+        <v>0.449282809147656</v>
       </c>
       <c r="D5" t="n">
-        <v>0.191951218550406</v>
+        <v>0.220566343649164</v>
       </c>
       <c r="E5" t="n">
-        <v>0.226376059881047</v>
+        <v>0.220606091795576</v>
       </c>
       <c r="F5" t="n">
-        <v>0.218219333905158</v>
+        <v>0.204354300946893</v>
       </c>
       <c r="G5" t="n">
-        <v>0.230184471217948</v>
+        <v>0.179641840684225</v>
       </c>
     </row>
     <row r="6">
@@ -499,22 +499,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.155594340693135</v>
+        <v>0.202520617772054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.149548265986581</v>
+        <v>0.156702119857731</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0625961235617737</v>
+        <v>0.0374154711766976</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0760101421611344</v>
+        <v>0.0844097181626888</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0288763948702247</v>
+        <v>0.0621757816678755</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0660289455030233</v>
+        <v>0.101020077520323</v>
       </c>
     </row>
   </sheetData>
